--- a/biology/Zoologie/Afrolychas_burdoi/Afrolychas_burdoi.xlsx
+++ b/biology/Zoologie/Afrolychas_burdoi/Afrolychas_burdoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrolychas burdoi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Centrafrique, au Congo-Kinshasa, en Zambie, au Malawi, au Mozambique et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Centrafrique, au Congo-Kinshasa, en Zambie, au Malawi, au Mozambique et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Kovařík en 1997 mesure 31,4 mm et les femelles 32,5 et 36,3 mm[2]. Afrolychas burdoi mesure de 25 à 40 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Kovařík en 1997 mesure 31,4 mm et les femelles 32,5 et 36,3 mm. Afrolychas burdoi mesure de 25 à 40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Isometrus burdoi par Simon en 1882. Elle est placée dans le genre Archisometrus par Kraepelin en 1891[3], dans le genre Lychas par Pocock en 1900[4] puis dans le genre Afrolychas par Kovařík en 2019[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Isometrus burdoi par Simon en 1882. Elle est placée dans le genre Archisometrus par Kraepelin en 1891, dans le genre Lychas par Pocock en 1900 puis dans le genre Afrolychas par Kovařík en 2019.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adolphe Burdo[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Adolphe Burdo.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1882 : « Récoltes entomologiques de M. A. Burdo, sur le trajet de Zanzibar aux grands lacs. Arachnides. » Annales de la Société Royale Belge d'Entomologie, vol. 26, p. 58-61.</t>
         </is>
